--- a/異世界もの＿風景からマナ/作業メモ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/作業メモ/魔法一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDrive\Git\novel\異世界もの＿風景からマナ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDrive\Git\novel\異世界もの＿風景からマナ\作業メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09300C70-620D-42AD-A38F-FB70FC369687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2FA35D-D776-49D3-A109-9967EB5FE1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="675" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/異世界もの＿風景からマナ/作業メモ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/作業メモ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDrive\Git\novel\異世界もの＿風景からマナ\作業メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2FA35D-D776-49D3-A109-9967EB5FE1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D829D406-8069-4BEF-A385-BB66F233FD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="675" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -926,6 +926,10 @@
     <rPh sb="0" eb="2">
       <t>ホオバ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツガラミ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1267,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1738,6 +1742,11 @@
         <v>119</v>
       </c>
     </row>
+    <row r="34" spans="1:7">
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>125</v>
